--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAC0AB0-DFD0-42D5-BB96-07DF0D2FE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42FAD4-58A4-4E47-A3FC-9590294359E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1054,7 @@
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>63</v>
       </c>
       <c r="C16">
-        <v>8080</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42FAD4-58A4-4E47-A3FC-9590294359E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CB658-B52E-40A4-A604-31A42BB4C851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="146">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Wald</t>
   </si>
   <si>
-    <t>Placeholdername</t>
-  </si>
-  <si>
     <t>Ruf</t>
   </si>
   <si>
@@ -90,21 +87,12 @@
     <t>#IP Zentrale</t>
   </si>
   <si>
-    <t>#Port Zentrale</t>
-  </si>
-  <si>
     <t>#Status Nachricht Intervall (s)</t>
   </si>
   <si>
     <t>#Wartungs Pin</t>
   </si>
   <si>
-    <t>#WiFi SSID</t>
-  </si>
-  <si>
-    <t>#WiFi API Passwort</t>
-  </si>
-  <si>
     <t>#Anzeige Text</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>#(Connecting to Port 80/443)</t>
   </si>
   <si>
-    <t>PlaceholderAPIPasswort</t>
-  </si>
-  <si>
     <t>DMXScenes</t>
   </si>
   <si>
@@ -460,6 +445,24 @@
   </si>
   <si>
     <t>#Zeige Logo (Position|Ambiente|Farbe|Gastro|Media|Service|Wartung|restricted)</t>
+  </si>
+  <si>
+    <t>#QRCode Logo</t>
+  </si>
+  <si>
+    <t>QRLogo.png</t>
+  </si>
+  <si>
+    <t>#UDP Port Zentrale</t>
+  </si>
+  <si>
+    <t>#TCP Local Server Port</t>
+  </si>
+  <si>
+    <t>#WiFi SSID (Mit [Room] kann dynamisch der Raum ersetzt werden)</t>
+  </si>
+  <si>
+    <t>WifiName_ofRoom:[Room]</t>
   </si>
 </sst>
 </file>
@@ -939,16 +942,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -963,31 +966,31 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -995,10 +998,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1006,10 +1009,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>192</v>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1040,32 +1043,32 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,91 +1076,91 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -1169,15 +1172,15 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>23</v>
@@ -1185,101 +1188,101 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1287,122 +1290,113 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>141</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1413,312 +1407,318 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" t="s">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
       </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="D41" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46">
         <v>15</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46">
-        <v>250</v>
+      <c r="D46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
+      <c r="A49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>127</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1726,145 +1726,100 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>101</v>
+        <v>14</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>255</v>
-      </c>
-      <c r="G55">
-        <v>56</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>128</v>
-      </c>
-      <c r="K55">
-        <v>128</v>
-      </c>
-      <c r="L55">
-        <v>255</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55" t="s">
-        <v>138</v>
+      <c r="T55" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1873,19 +1828,19 @@
         <v>255</v>
       </c>
       <c r="G56">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>128</v>
       </c>
-      <c r="I56">
-        <v>255</v>
-      </c>
-      <c r="J56">
-        <v>255</v>
-      </c>
       <c r="K56">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -1908,46 +1863,46 @@
       <c r="R56">
         <v>0</v>
       </c>
-      <c r="T56" t="s">
-        <v>47</v>
+      <c r="S56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -1968,27 +1923,27 @@
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>42</v>
+      <c r="A58" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2026,31 +1981,31 @@
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="S58" t="s">
-        <v>137</v>
+      <c r="T58" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G59">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2084,20 +2039,23 @@
       </c>
       <c r="R59">
         <v>0</v>
+      </c>
+      <c r="S59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2106,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H60">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -2140,28 +2098,84 @@
       </c>
       <c r="R60">
         <v>0</v>
-      </c>
-      <c r="S60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>255</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>128</v>
+      </c>
+      <c r="K61">
+        <v>128</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>69</v>
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+  <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CB658-B52E-40A4-A604-31A42BB4C851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F8F0D11-5468-4D76-8FFF-7C5054D91600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="146">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="240" uniqueCount="158">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -87,18 +90,12 @@
     <t>#IP Zentrale</t>
   </si>
   <si>
-    <t>#Status Nachricht Intervall (s)</t>
-  </si>
-  <si>
     <t>#Wartungs Pin</t>
   </si>
   <si>
     <t>#Anzeige Text</t>
   </si>
   <si>
-    <t>#Json String</t>
-  </si>
-  <si>
     <t>#(Text auf der Service Seite)</t>
   </si>
   <si>
@@ -171,18 +168,6 @@
     <t>#Logo Absolut Filepath</t>
   </si>
   <si>
-    <t>#Passwort Wörter Absolut Filepath</t>
-  </si>
-  <si>
-    <t>#Service Bild Absolut FilePath</t>
-  </si>
-  <si>
-    <t>#Ambiente Hintergrund Bild Absolut FilePath</t>
-  </si>
-  <si>
-    <t>#Medien Bild Absolut FilePath</t>
-  </si>
-  <si>
     <t>#Order Importance</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>#Zeige Zeit Seite</t>
   </si>
   <si>
-    <t>#Timer Bild Absolut FilePath</t>
-  </si>
-  <si>
     <t>#HDMI Switch</t>
   </si>
   <si>
@@ -222,12 +204,6 @@
     <t>#End of Data Placeholder</t>
   </si>
   <si>
-    <t>5 Minuten verbleibend</t>
-  </si>
-  <si>
-    <t>15 Minuten verbleibend</t>
-  </si>
-  <si>
     <t>Sitzung ist zuende</t>
   </si>
   <si>
@@ -303,36 +279,12 @@
     <t>#Sitzung ist zuende</t>
   </si>
   <si>
-    <t>#5 Minuten verbleibend</t>
-  </si>
-  <si>
-    <t>#15 Minuten verbleibend</t>
-  </si>
-  <si>
-    <t>10 Minuten verbleibend</t>
-  </si>
-  <si>
-    <t>#10 Minuten verbleibend</t>
-  </si>
-  <si>
-    <t>#[More Serives can be added]</t>
-  </si>
-  <si>
     <t>#Start</t>
   </si>
   <si>
     <t>volume</t>
   </si>
   <si>
-    <t>#[More Scenes can be added]</t>
-  </si>
-  <si>
-    <t>#States</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>Services</t>
   </si>
   <si>
@@ -357,42 +309,18 @@
     <t>#default</t>
   </si>
   <si>
-    <t>#Json value</t>
-  </si>
-  <si>
-    <t>#siehe JsonTamplates.readme</t>
-  </si>
-  <si>
-    <t>#min: (255/[Status ids])*[status id], max (255/[Status ids])*[status id+1]-1</t>
-  </si>
-  <si>
-    <t>Kust Beleuchtung</t>
-  </si>
-  <si>
     <t>#Not useable</t>
   </si>
   <si>
     <t>Laustärke</t>
   </si>
   <si>
-    <t>Duschen</t>
-  </si>
-  <si>
-    <t>Toiletten</t>
-  </si>
-  <si>
     <t>2, 10</t>
   </si>
   <si>
     <t>3, 11</t>
   </si>
   <si>
-    <t>#List of Channels (R|G|B)</t>
-  </si>
-  <si>
-    <t>#Sitzungsdauer (für Timer)(m) (deprecated)</t>
-  </si>
-  <si>
     <t>COM3</t>
   </si>
   <si>
@@ -417,12 +345,6 @@
     <t>#DMX Channel to change</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Passwordwords.txt</t>
-  </si>
-  <si>
     <t>Werbung.jpeg</t>
   </si>
   <si>
@@ -463,13 +385,130 @@
   </si>
   <si>
     <t>WifiName_ofRoom:[Room]</t>
+  </si>
+  <si>
+    <t>Design Element</t>
+  </si>
+  <si>
+    <t>Dusche</t>
+  </si>
+  <si>
+    <t>Raum</t>
+  </si>
+  <si>
+    <t>Whirlpool</t>
+  </si>
+  <si>
+    <t>Whirlpool spülen</t>
+  </si>
+  <si>
+    <t>Whirlpool ablassen</t>
+  </si>
+  <si>
+    <t>#[More TCP Wartugs Setting Informations can be added (max 5)]</t>
+  </si>
+  <si>
+    <t>#TCP Wartungs Settings</t>
+  </si>
+  <si>
+    <t>#id</t>
+  </si>
+  <si>
+    <t>#Json Label</t>
+  </si>
+  <si>
+    <t>[id] Minuten verbleibend</t>
+  </si>
+  <si>
+    <t>#Anzeige Text  (Mit [id] kann dynamisch die id ersetzt werden)</t>
+  </si>
+  <si>
+    <t>#Json id (Mit [all_left] kann dynamisch die Zeile für alle übrigen werte genutzt werden)</t>
+  </si>
+  <si>
+    <t>[all_left]</t>
+  </si>
+  <si>
+    <t>#[id] Minuten verbleibend</t>
+  </si>
+  <si>
+    <t>#Should reset data</t>
+  </si>
+  <si>
+    <t>#Status Nachricht Intervall (s) (-1 to disable)</t>
+  </si>
+  <si>
+    <t>#Ambiente</t>
+  </si>
+  <si>
+    <t>#Color</t>
+  </si>
+  <si>
+    <t>#Gastronomie</t>
+  </si>
+  <si>
+    <t>#Service</t>
+  </si>
+  <si>
+    <t>#Media</t>
+  </si>
+  <si>
+    <t>#Wartung</t>
+  </si>
+  <si>
+    <t>#Time</t>
+  </si>
+  <si>
+    <t>#Ambiente Hintergrund Bild</t>
+  </si>
+  <si>
+    <t>#Color Hintergrund Bild</t>
+  </si>
+  <si>
+    <t>#Medien Bild</t>
+  </si>
+  <si>
+    <t>#Timer Bild</t>
+  </si>
+  <si>
+    <t>#Service Bild</t>
+  </si>
+  <si>
+    <t>#Wartung Bild</t>
+  </si>
+  <si>
+    <t>Json Type:1</t>
+  </si>
+  <si>
+    <t>Json Type:2</t>
+  </si>
+  <si>
+    <t>Json Type:3</t>
+  </si>
+  <si>
+    <t>Json Type:4</t>
+  </si>
+  <si>
+    <t>#value (no Array)</t>
+  </si>
+  <si>
+    <t>#[More Serives can be added (max 12)]</t>
+  </si>
+  <si>
+    <t>#[More Scenes can be added (max 15)]</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>#List of Channels (R|G|B|W)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +630,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,27 +648,15 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -631,9 +666,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,8 +676,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,16 +683,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -680,7 +708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -799,25 +827,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -825,25 +853,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -856,21 +884,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -884,7 +912,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -896,32 +924,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -941,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T63"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,38 +986,40 @@
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="87.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
+      <c r="D1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2">
@@ -997,21 +1027,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4">
@@ -1028,77 +1058,77 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>142</v>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>143</v>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C6">
         <v>5004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>125</v>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>124</v>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C10">
-        <v>1000</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1120,283 +1150,298 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="16">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>168</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15">
-        <v>192</v>
-      </c>
-      <c r="D15">
-        <v>168</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
+      <c r="B29" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>62</v>
+      <c r="B30" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>114</v>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1406,17 +1451,17 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>56</v>
+      <c r="B31" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1426,459 +1471,410 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>120</v>
+      <c r="B32" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>118</v>
+      <c r="D32" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="25" t="s">
+      <c r="A33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>115</v>
+      <c r="B40" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48">
+        <v>250</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="26" t="s">
+      <c r="F56" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46">
-        <v>15</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="G56" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K55" s="5" t="s">
+      <c r="N56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L55" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="5" t="s">
+      <c r="S56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O55" s="5" t="s">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="P55" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T55" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>255</v>
-      </c>
-      <c r="G56">
-        <v>56</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>128</v>
-      </c>
-      <c r="K56">
-        <v>128</v>
-      </c>
-      <c r="L56">
-        <v>255</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
       <c r="D57" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1887,19 +1883,19 @@
         <v>255</v>
       </c>
       <c r="G57">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>128</v>
       </c>
-      <c r="I57">
-        <v>255</v>
-      </c>
-      <c r="J57">
-        <v>255</v>
-      </c>
       <c r="K57">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -1922,46 +1918,46 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="T57" t="s">
-        <v>42</v>
+      <c r="S57" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>52</v>
+      <c r="A58" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -1982,27 +1978,27 @@
         <v>0</v>
       </c>
       <c r="T58" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>38</v>
+      <c r="A59" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2040,31 +2036,31 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="S59" t="s">
-        <v>132</v>
+      <c r="T59" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G60">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2098,20 +2094,23 @@
       </c>
       <c r="R60">
         <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2120,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H61">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -2154,28 +2153,84 @@
       </c>
       <c r="R61">
         <v>0</v>
-      </c>
-      <c r="S61" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>255</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>128</v>
+      </c>
+      <c r="K62">
+        <v>128</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>64</v>
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F8F0D11-5468-4D76-8FFF-7C5054D91600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02396102-E874-4DC6-9D6D-226A4DD0172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="240" uniqueCount="158">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="241" uniqueCount="159">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>#List of Channels (R|G|B|W)</t>
+  </si>
+  <si>
+    <t>#CH14</t>
   </si>
 </sst>
 </file>
@@ -970,28 +973,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,7 +1712,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>151</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>152</v>
       </c>
@@ -1856,14 +1859,17 @@
       <c r="R56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S56" s="6" t="s">
+      <c r="S56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="T56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T56" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
@@ -1918,11 +1924,14 @@
       <c r="R57">
         <v>0</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>46</v>
       </c>
@@ -1977,11 +1986,14 @@
       <c r="R58">
         <v>0</v>
       </c>
-      <c r="T58" t="s">
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>46</v>
       </c>
@@ -2036,11 +2048,14 @@
       <c r="R59">
         <v>0</v>
       </c>
-      <c r="T59" t="s">
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -2095,11 +2110,14 @@
       <c r="R60">
         <v>0</v>
       </c>
-      <c r="S60" t="s">
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2154,8 +2172,11 @@
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2210,11 +2231,14 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="S62" t="s">
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2222,7 +2246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>57</v>
       </c>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02396102-E874-4DC6-9D6D-226A4DD0172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF97C474-1BD9-440E-9156-00CCD42BD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="241" uniqueCount="159">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="245" uniqueCount="162">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>#CH14</t>
+  </si>
+  <si>
+    <t>#(Standart Button, falls Gastro ausfällt)</t>
+  </si>
+  <si>
+    <t>#Restricted Page Desciption</t>
+  </si>
+  <si>
+    <t>Zugriff nur für Mitarbeiter</t>
   </si>
 </sst>
 </file>
@@ -973,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,53 +1126,50 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10">
-        <v>666</v>
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1171,52 +1177,55 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>118</v>
+        <v>37</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="16">
-        <v>192</v>
-      </c>
-      <c r="D14">
-        <v>168</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="16">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="D15">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="16">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1224,31 +1233,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1256,98 +1244,117 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
@@ -1356,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1369,48 +1376,41 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" t="s">
-        <v>36</v>
+      <c r="B28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -1438,19 +1438,19 @@
         <v>13</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>255</v>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,13 +1458,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1478,53 +1478,62 @@
         <v>13</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>96</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1532,10 +1541,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1543,86 +1552,83 @@
         <v>13</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,55 +1636,52 @@
         <v>13</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
         <v>122</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,16 +1689,16 @@
         <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>132</v>
+        <v>82</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>129</v>
+      <c r="E47" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1703,69 +1706,72 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48">
-        <v>250</v>
+        <v>133</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49">
+        <v>250</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>102</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -1773,13 +1779,16 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -1787,148 +1796,100 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="4" t="s">
+      <c r="O57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R56" s="4" t="s">
+      <c r="R57" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="T56" s="6" t="s">
+      <c r="T57" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U56" s="4" t="s">
+      <c r="U57" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>255</v>
-      </c>
-      <c r="G57">
-        <v>56</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>128</v>
-      </c>
-      <c r="K57">
-        <v>128</v>
-      </c>
-      <c r="L57">
-        <v>255</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -1936,13 +1897,13 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1951,19 +1912,19 @@
         <v>255</v>
       </c>
       <c r="G58">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <v>128</v>
       </c>
-      <c r="I58">
-        <v>255</v>
-      </c>
-      <c r="J58">
-        <v>255</v>
-      </c>
       <c r="K58">
-        <v>255</v>
+        <v>128</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -1989,8 +1950,8 @@
       <c r="S58">
         <v>0</v>
       </c>
-      <c r="U58" t="s">
-        <v>40</v>
+      <c r="T58" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -1998,123 +1959,123 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>255</v>
+      </c>
+      <c r="G59">
+        <v>200</v>
+      </c>
+      <c r="H59">
+        <v>128</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>255</v>
+      </c>
+      <c r="K59">
+        <v>255</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>87</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>86</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>255</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -2122,22 +2083,22 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G61">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2174,6 +2135,9 @@
       </c>
       <c r="S61">
         <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -2181,13 +2145,13 @@
         <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2196,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -2233,28 +2197,87 @@
       </c>
       <c r="S62">
         <v>0</v>
-      </c>
-      <c r="T62" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>255</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>128</v>
+      </c>
+      <c r="K63">
+        <v>128</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF97C474-1BD9-440E-9156-00CCD42BD117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{97A9BA72-6906-4F0C-ADB4-E9DEA516262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="245" uniqueCount="162">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="246" uniqueCount="164">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -408,9 +419,6 @@
     <t>#[More TCP Wartugs Setting Informations can be added (max 5)]</t>
   </si>
   <si>
-    <t>#TCP Wartungs Settings</t>
-  </si>
-  <si>
     <t>#id</t>
   </si>
   <si>
@@ -514,6 +522,15 @@
   </si>
   <si>
     <t>Zugriff nur für Mitarbeiter</t>
+  </si>
+  <si>
+    <t>#Secondary Function (JsonType,Subtype;enable,block)</t>
+  </si>
+  <si>
+    <t>Json Type:5</t>
+  </si>
+  <si>
+    <t>TCPWartung</t>
   </si>
 </sst>
 </file>
@@ -984,8 +1001,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1034,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1096,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1129,10 +1146,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
         <v>160</v>
-      </c>
-      <c r="C10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,25 +1267,25 @@
         <v>110</v>
       </c>
       <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
         <v>136</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>138</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>139</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
         <v>140</v>
-      </c>
-      <c r="I18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1332,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1343,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1352,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1363,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>109</v>
@@ -1376,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>108</v>
@@ -1389,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="11"/>
     </row>
@@ -1498,7 +1515,7 @@
         <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -1515,13 +1532,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="13"/>
     </row>
@@ -1577,7 +1594,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>92</v>
@@ -1615,20 +1632,20 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
+      <c r="A42" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E42" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,13 +1692,13 @@
         <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,16 +1723,16 @@
         <v>14</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>111</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -1748,12 +1765,15 @@
         <v>85</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1770,7 +1790,7 @@
       <c r="D52" t="s">
         <v>102</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1787,8 +1807,8 @@
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
-        <v>159</v>
+      <c r="F53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -1804,6 +1824,10 @@
       <c r="D54" t="s">
         <v>10</v>
       </c>
+      <c r="E54" t="str">
+        <f xml:space="preserve"> "[" &amp; B57 &amp; "," &amp; C59 &amp; "," &amp; "1,1]"</f>
+        <v>[DMXScenes,Putzlicht,1,1]</v>
+      </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1824,18 +1848,18 @@
         <v>36</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>21</v>
@@ -1883,7 +1907,7 @@
         <v>81</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T57" s="6" t="s">
         <v>44</v>
@@ -2266,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\Github\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{97A9BA72-6906-4F0C-ADB4-E9DEA516262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9972BCA-D5AD-4950-9185-16823EF29D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="246" uniqueCount="164">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="261" uniqueCount="172">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -524,13 +524,37 @@
     <t>Zugriff nur für Mitarbeiter</t>
   </si>
   <si>
-    <t>#Secondary Function (JsonType,Subtype;enable,block)</t>
-  </si>
-  <si>
     <t>Json Type:5</t>
   </si>
   <si>
     <t>TCPWartung</t>
+  </si>
+  <si>
+    <t>#Secondary Function (JsonType,Subtype;enable,block,(optional)value)</t>
+  </si>
+  <si>
+    <t>#Zeige Eck Zeit</t>
+  </si>
+  <si>
+    <t>#EndBild</t>
+  </si>
+  <si>
+    <t>#LogFile</t>
+  </si>
+  <si>
+    <t>Log:[Date];[Time].txt</t>
+  </si>
+  <si>
+    <t>#Sitzung ist fast zuende</t>
+  </si>
+  <si>
+    <t>Sitzung ist fast zuende: [id]</t>
+  </si>
+  <si>
+    <t>#info</t>
+  </si>
+  <si>
+    <t>#negative values are not showen</t>
   </si>
 </sst>
 </file>
@@ -715,9 +739,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -999,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,10 +1104,10 @@
         <v>168</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="F4">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,7 +1220,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1261,31 +1285,13 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
         <v>110</v>
       </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" t="s">
-        <v>140</v>
+      <c r="D18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,98 +1299,117 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
@@ -1393,10 +1418,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1406,88 +1431,66 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>255</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,19 +1498,19 @@
         <v>13</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>255</v>
+        <v>120</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,786 +1518,869 @@
         <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="C33">
-        <v>9</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="13"/>
+      <c r="A34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>255</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
+      <c r="B35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
+      <c r="B36" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
-      </c>
+      <c r="A37" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>23</v>
+      <c r="B40" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>94</v>
+      <c r="B41" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-      <c r="H41" s="5"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>163</v>
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>123</v>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>124</v>
+      <c r="B44" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
         <v>122</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>129</v>
+      <c r="D46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>128</v>
+        <v>36</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49">
-        <v>250</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>110</v>
+      <c r="A49" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>91</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>30</v>
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>31</v>
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" t="s">
-        <v>22</v>
+        <v>131</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
+      <c r="B53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D58" t="s">
         <v>10</v>
       </c>
-      <c r="E54" t="str">
-        <f xml:space="preserve"> "[" &amp; B57 &amp; "," &amp; C59 &amp; "," &amp; "1,1]"</f>
-        <v>[DMXScenes,Putzlicht,1,1]</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="E58" t="str">
+        <f xml:space="preserve">  B61 &amp; "," &amp; C63 &amp; "," &amp; "true,true"</f>
+        <v>DMXScenes,Putzlicht,true,true</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="4" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O57" s="4" t="s">
+      <c r="O61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="Q61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R57" s="4" t="s">
+      <c r="R61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="T57" s="6" t="s">
+      <c r="T61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="4" t="s">
+      <c r="U61" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>31</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C62" t="s">
         <v>1</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D62" t="s">
         <v>43</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>255</v>
       </c>
-      <c r="G58">
+      <c r="G62">
         <v>56</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <v>128</v>
       </c>
-      <c r="K58">
+      <c r="K62">
         <v>128</v>
       </c>
-      <c r="L58">
+      <c r="L62">
         <v>255</v>
       </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="D59" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>255</v>
       </c>
-      <c r="G59">
+      <c r="G63">
         <v>200</v>
       </c>
-      <c r="H59">
+      <c r="H63">
         <v>128</v>
       </c>
-      <c r="I59">
+      <c r="I63">
         <v>255</v>
       </c>
-      <c r="J59">
+      <c r="J63">
         <v>255</v>
       </c>
-      <c r="K59">
+      <c r="K63">
         <v>255</v>
       </c>
-      <c r="L59">
+      <c r="L63">
         <v>255</v>
       </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>25</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C64" t="s">
         <v>87</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D64" t="s">
         <v>86</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="U64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>26</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C65" t="s">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D65" t="s">
         <v>2</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>255</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>36</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
         <v>32</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C66" t="s">
         <v>3</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D66" t="s">
         <v>3</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>255</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" t="s">
         <v>4</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D67" t="s">
         <v>4</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>255</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>128</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <v>128</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63" t="s">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B68" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\Github\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B9972BCA-D5AD-4950-9185-16823EF29D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D68FA606-1BB0-4F6F-8C92-4540C2746C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="261" uniqueCount="172">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="258" uniqueCount="170">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -332,15 +332,9 @@
     <t>3, 11</t>
   </si>
   <si>
-    <t>COM3</t>
-  </si>
-  <si>
     <t>COM4</t>
   </si>
   <si>
-    <t>#Enttec Port Name</t>
-  </si>
-  <si>
     <t>#Arduino Com Port Name</t>
   </si>
   <si>
@@ -554,7 +548,7 @@
     <t>#info</t>
   </si>
   <si>
-    <t>#negative values are not showen</t>
+    <t>#negative values are not showen and onl via networ reachable</t>
   </si>
 </sst>
 </file>
@@ -692,18 +686,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -738,10 +726,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1023,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1023,7 @@
     <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1058,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1115,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1126,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1137,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1148,10 +1135,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,58 +1146,61 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>666</v>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,55 +1208,52 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>118</v>
+        <v>51</v>
+      </c>
+      <c r="C14" s="19">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>168</v>
+      </c>
+      <c r="E14">
+        <v>178</v>
+      </c>
+      <c r="F14">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="16">
-        <v>192</v>
-      </c>
-      <c r="D15">
-        <v>168</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="C15" s="19">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="16">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1274,10 +1261,13 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1285,131 +1275,130 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
         <v>110</v>
       </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" t="s">
-        <v>110</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
@@ -1418,10 +1407,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1431,66 +1420,73 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+        <v>145</v>
+      </c>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>70</v>
+      <c r="F31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,13 +1494,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -1518,19 +1514,19 @@
         <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,13 +1534,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>93</v>
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1558,62 +1554,53 @@
         <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="13"/>
+      <c r="B37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1621,10 +1608,10 @@
         <v>13</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,83 +1619,86 @@
         <v>13</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>152</v>
+      <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1716,55 +1706,58 @@
         <v>13</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>125</v>
+      <c r="A48" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>170</v>
+      <c r="A49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -1772,16 +1765,16 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>111</v>
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -1789,16 +1782,16 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -1806,78 +1799,78 @@
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
+        <v>83</v>
+      </c>
+      <c r="C52">
+        <v>-1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53">
-        <v>-1</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" t="s">
-        <v>171</v>
+        <v>36</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>91</v>
+      <c r="A54" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>30</v>
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -1885,16 +1878,17 @@
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="E57" t="str">
+        <f xml:space="preserve">  B60 &amp; "," &amp; C62 &amp; "," &amp; "true,true"</f>
+        <v>DMXScenes,Putzlicht,true,true</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -1902,104 +1896,148 @@
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="str">
-        <f xml:space="preserve">  B61 &amp; "," &amp; C63 &amp; "," &amp; "true,true"</f>
-        <v>DMXScenes,Putzlicht,true,true</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>153</v>
+      <c r="A60" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U60" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="T61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>30</v>
+      <c r="A61" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>255</v>
+      </c>
+      <c r="G61">
+        <v>56</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>128</v>
+      </c>
+      <c r="K61">
+        <v>128</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -2007,13 +2045,13 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2022,19 +2060,19 @@
         <v>255</v>
       </c>
       <c r="G62">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="J62">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="K62">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2060,8 +2098,8 @@
       <c r="S62">
         <v>0</v>
       </c>
-      <c r="T62" t="s">
-        <v>106</v>
+      <c r="U62" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -2069,82 +2107,82 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
         <v>255</v>
       </c>
-      <c r="G63">
-        <v>200</v>
-      </c>
-      <c r="H63">
-        <v>128</v>
-      </c>
-      <c r="I63">
-        <v>255</v>
-      </c>
-      <c r="J63">
-        <v>255</v>
-      </c>
-      <c r="K63">
-        <v>255</v>
-      </c>
-      <c r="L63">
-        <v>255</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
       <c r="G64">
         <v>0</v>
       </c>
@@ -2184,8 +2222,8 @@
       <c r="S64">
         <v>0</v>
       </c>
-      <c r="U64" t="s">
-        <v>47</v>
+      <c r="T64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -2193,23 +2231,23 @@
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>255</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
@@ -2245,9 +2283,6 @@
       </c>
       <c r="S65">
         <v>0</v>
-      </c>
-      <c r="T65" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -2255,13 +2290,13 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2270,19 +2305,19 @@
         <v>0</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>255</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -2307,87 +2342,28 @@
       </c>
       <c r="S66">
         <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>255</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>128</v>
-      </c>
-      <c r="K67">
-        <v>128</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" t="s">
-        <v>106</v>
+      <c r="B67" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A68" s="4" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{214A0CD7-3BE3-4F42-8E5E-A2671652CB05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\Github\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D68FA606-1BB0-4F6F-8C92-4540C2746C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C18CBD5-084D-4C6E-ACF3-C70B790B383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="258" uniqueCount="170">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="259" uniqueCount="171">
   <si>
     <t>Putzlicht/Notfall</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>#negative values are not showen and onl via networ reachable</t>
+  </si>
+  <si>
+    <t>#minuntes before end of Session (shows endpicture (changeable, blocks streaming, switches to TimePage)</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -729,7 +732,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1013,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1212,7 @@
       <c r="B13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1221,7 +1223,7 @@
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14">
         <v>192</v>
       </c>
       <c r="D14">
@@ -1241,7 +1243,7 @@
       <c r="B15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15">
         <v>23</v>
       </c>
     </row>
@@ -1423,6 +1425,9 @@
         <v>145</v>
       </c>
       <c r="C27" s="11"/>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1768,7 +1773,7 @@
         <v>166</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>109</v>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\Github\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C18CBD5-084D-4C6E-ACF3-C70B790B383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC9100F3-6EA7-4E44-96BB-F85E350A344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>168</v>
       </c>
       <c r="E14">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC9100F3-6EA7-4E44-96BB-F85E350A344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C770042D-6280-44AE-B811-A2AA2EB0FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,9 +500,6 @@
     <t>#[More Scenes can be added (max 15)]</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>#List of Channels (R|G|B|W)</t>
   </si>
   <si>
@@ -552,6 +549,9 @@
   </si>
   <si>
     <t>#minuntes before end of Session (shows endpicture (changeable, blocks streaming, switches to TimePage)</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:U68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1148,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
         <v>157</v>
-      </c>
-      <c r="C9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>106</v>
@@ -1448,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -1680,7 +1680,7 @@
         <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>125</v>
@@ -1745,7 +1745,7 @@
         <v>127</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50">
         <v>15</v>
@@ -1779,7 +1779,7 @@
         <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>21</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>30</v>
@@ -1875,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
@@ -1974,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T60" s="6" t="s">
         <v>44</v>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C770042D-6280-44AE-B811-A2AA2EB0FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AC96107-C72A-42D9-9420-E338B66390B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,9 +362,6 @@
     <t>butler.png</t>
   </si>
   <si>
-    <t>background.jpg</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -552,6 +549,9 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>background.bmp</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1115,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1148,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,10 +1210,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1280,28 +1280,28 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
         <v>133</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>135</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>136</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
         <v>137</v>
-      </c>
-      <c r="I18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,31 +1309,31 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1376,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1385,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1396,10 +1396,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1409,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>106</v>
@@ -1422,11 +1422,11 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>106</v>
@@ -1448,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -1545,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>92</v>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1725,27 +1725,27 @@
         <v>36</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>58</v>
@@ -1770,16 +1770,16 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -1787,16 +1787,16 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -1826,19 +1826,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>30</v>
@@ -1875,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -1915,18 +1915,18 @@
         <v>36</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>21</v>
@@ -1974,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T60" s="6" t="s">
         <v>44</v>
@@ -2357,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AC96107-C72A-42D9-9420-E338B66390B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C770042D-6280-44AE-B811-A2AA2EB0FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,6 +362,9 @@
     <t>butler.png</t>
   </si>
   <si>
+    <t>background.jpg</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -549,9 +552,6 @@
   </si>
   <si>
     <t>1.3</t>
-  </si>
-  <si>
-    <t>background.bmp</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1115,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1148,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,10 +1210,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1280,28 +1280,28 @@
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
         <v>138</v>
-      </c>
-      <c r="J18" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,31 +1309,31 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
         <v>108</v>
       </c>
-      <c r="G19" t="s">
-        <v>107</v>
-      </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1376,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1385,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1396,10 +1396,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1409,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>106</v>
@@ -1422,11 +1422,11 @@
         <v>14</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>106</v>
@@ -1448,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
@@ -1545,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -1638,7 +1638,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>92</v>
@@ -1677,19 +1677,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="E44" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
         <v>120</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1725,27 +1725,27 @@
         <v>36</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
         <v>58</v>
@@ -1770,16 +1770,16 @@
         <v>14</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -1787,16 +1787,16 @@
         <v>14</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
         <v>129</v>
       </c>
-      <c r="C51" t="s">
-        <v>128</v>
-      </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -1826,19 +1826,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>30</v>
@@ -1875,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -1915,18 +1915,18 @@
         <v>36</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>21</v>
@@ -1974,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T60" s="6" t="s">
         <v>44</v>
@@ -2357,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C770042D-6280-44AE-B811-A2AA2EB0FA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9553DEE4-1619-403F-8CD3-C5B084CE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="259" uniqueCount="171">
-  <si>
-    <t>Putzlicht/Notfall</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="261" uniqueCount="171">
   <si>
     <t>default</t>
   </si>
@@ -170,9 +167,6 @@
     <t>https://www.soundcraft.com/ui-demo/mixer.html</t>
   </si>
   <si>
-    <t>Standart</t>
-  </si>
-  <si>
     <t>#TVContent absolute Filepath</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>Services</t>
   </si>
   <si>
-    <t>Farbwahl</t>
-  </si>
-  <si>
     <t>Colorwheel</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>Whirlpool ablassen</t>
   </si>
   <si>
-    <t>#[More TCP Wartugs Setting Informations can be added (max 5)]</t>
-  </si>
-  <si>
     <t>#id</t>
   </si>
   <si>
@@ -494,12 +482,6 @@
     <t>#value (no Array)</t>
   </si>
   <si>
-    <t>#[More Serives can be added (max 12)]</t>
-  </si>
-  <si>
-    <t>#[More Scenes can be added (max 15)]</t>
-  </si>
-  <si>
     <t>#List of Channels (R|G|B|W)</t>
   </si>
   <si>
@@ -521,21 +503,12 @@
     <t>TCPWartung</t>
   </si>
   <si>
-    <t>#Secondary Function (JsonType,Subtype;enable,block,(optional)value)</t>
-  </si>
-  <si>
     <t>#Zeige Eck Zeit</t>
   </si>
   <si>
     <t>#EndBild</t>
   </si>
   <si>
-    <t>#LogFile</t>
-  </si>
-  <si>
-    <t>Log:[Date];[Time].txt</t>
-  </si>
-  <si>
     <t>#Sitzung ist fast zuende</t>
   </si>
   <si>
@@ -552,6 +525,33 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>#LogFile ([Date],[Time] are replaced ([Date]-&gt;Year.Month.Day, [Time]-&gt;Hour-Minute))</t>
+  </si>
+  <si>
+    <t>Log.txt</t>
+  </si>
+  <si>
+    <t>#[More Scenes can be added (max 15 mit Anzeige Text)]</t>
+  </si>
+  <si>
+    <t>#[More TCP Wartugs Setting Informations can be added (max 5 mit Anzeige Text)]</t>
+  </si>
+  <si>
+    <t>#[More Serives can be added (max 12 mit Anzeige Text)]</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>#Secondary Function (JsonType,Subtype;enable,block, cancleTCPCall, toggle(optional)value, (optional)delay)</t>
+  </si>
+  <si>
+    <t>#Be aware that there is no loop prevention</t>
+  </si>
+  <si>
+    <t>#This is important when selecting a ServiceSetting as Secondary Function</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,8 @@
     <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1038,31 +1039,31 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1070,10 +1071,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1081,10 +1082,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>192</v>
@@ -1101,10 +1102,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1112,10 +1113,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1123,10 +1124,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1134,32 +1135,32 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>666</v>
@@ -1167,10 +1168,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1193,35 +1194,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>192</v>
@@ -1238,10 +1239,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -1249,24 +1250,24 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1274,98 +1275,98 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s">
         <v>133</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
         <v>134</v>
-      </c>
-      <c r="F18" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1373,19 +1374,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1393,51 +1394,51 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1445,87 +1446,87 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1536,16 +1537,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1556,19 +1557,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C35">
         <v>9</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F35">
         <v>12</v>
@@ -1576,84 +1577,84 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -1662,13 +1663,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -1677,30 +1678,30 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1708,13 +1709,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1722,282 +1723,293 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E56" t="str">
+        <f xml:space="preserve">  B48 &amp; "," &amp; C50 &amp; "," &amp; "true,true, false"</f>
+        <v>Session,15,true,true, false</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" t="str">
-        <f xml:space="preserve">  B60 &amp; "," &amp; C62 &amp; "," &amp; "true,true"</f>
-        <v>DMXScenes,Putzlicht,true,true</v>
+        <f xml:space="preserve">  B60 &amp; "," &amp; C62 &amp; "," &amp; "true,true, false"</f>
+        <v>DMXScenes,Putzlicht,true,true, false</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E58" t="str">
+        <f xml:space="preserve">  B54 &amp; "," &amp; C57 &amp; "," &amp; "true,true, false"</f>
+        <v>Services,Notfall,true,true, false</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O60" s="4" t="s">
+      <c r="Q60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U60" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="T60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F61">
         <v>255</v>
@@ -2042,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2104,21 +2116,21 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2166,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2228,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2292,16 +2304,16 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2349,20 +2361,20 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9553DEE4-1619-403F-8CD3-C5B084CE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0B2DA4C2-7672-4312-B7B9-13B924338501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1094,10 @@
         <v>168</v>
       </c>
       <c r="E4">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0B2DA4C2-7672-4312-B7B9-13B924338501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{65DC8E64-984E-4D8C-BEE4-984EC9CC87F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,7 +2033,7 @@
         <v>255</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="P66">
         <v>0</v>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{65DC8E64-984E-4D8C-BEE4-984EC9CC87F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4C9E2071-AC29-4A47-B60F-E0C4FA4BCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="261" uniqueCount="171">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="260" uniqueCount="170">
   <si>
     <t>default</t>
   </si>
@@ -317,12 +317,6 @@
     <t>Laustärke</t>
   </si>
   <si>
-    <t>2, 10</t>
-  </si>
-  <si>
-    <t>3, 11</t>
-  </si>
-  <si>
     <t>COM4</t>
   </si>
   <si>
@@ -552,6 +546,9 @@
   </si>
   <si>
     <t>#This is important when selecting a ServiceSetting as Secondary Function</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1012,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -1105,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1116,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1127,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1138,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,10 +1146,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>666</v>
@@ -1211,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,7 +1253,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,10 +1261,10 @@
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1281,28 +1278,28 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
         <v>129</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>131</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
         <v>132</v>
-      </c>
-      <c r="H18" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,31 +1307,31 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1355,10 +1352,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1377,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1386,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1397,10 +1394,10 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1410,10 +1407,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1423,11 +1420,11 @@
         <v>13</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1435,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1449,10 +1446,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1463,7 +1460,7 @@
         <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>66</v>
@@ -1483,10 +1480,10 @@
         <v>46</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
@@ -1503,10 +1500,10 @@
         <v>47</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
@@ -1523,7 +1520,7 @@
         <v>53</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>90</v>
@@ -1543,10 +1540,10 @@
         <v>48</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1560,30 +1557,30 @@
         <v>12</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35">
         <v>9</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
       <c r="F35">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -1639,7 +1636,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>89</v>
@@ -1678,19 +1675,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1712,10 +1709,10 @@
         <v>12</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1726,27 +1723,27 @@
         <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
         <v>56</v>
@@ -1771,16 +1768,16 @@
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -1788,16 +1785,16 @@
         <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -1811,10 +1808,10 @@
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -1827,19 +1824,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>29</v>
@@ -1856,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
         <v>21</v>
@@ -1880,7 +1877,7 @@
         <v>Session,15,true,true, false</v>
       </c>
       <c r="F56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -1901,7 +1898,7 @@
         <v>DMXScenes,Putzlicht,true,true, false</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -1922,7 +1919,7 @@
         <v>Services,Notfall,true,true, false</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -1930,24 +1927,24 @@
         <v>35</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>75</v>
@@ -1989,7 +1986,7 @@
         <v>79</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T60" s="6" t="s">
         <v>42</v>
@@ -2009,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F61">
         <v>255</v>
@@ -2054,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -2068,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2130,7 +2127,7 @@
         <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2240,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -2361,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -2369,7 +2366,7 @@
         <v>35</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4C9E2071-AC29-4A47-B60F-E0C4FA4BCC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{713E7426-7C8A-4850-84FE-E05C984043D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1520,7 @@
         <v>53</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>90</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>255</v>
@@ -2337,12 +2337,6 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>255</v>
-      </c>
-      <c r="O66">
         <v>255</v>
       </c>
       <c r="P66">

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{713E7426-7C8A-4850-84FE-E05C984043D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{848E677E-4C18-4C73-9E26-CDDD082E2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="260" uniqueCount="170">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="263" uniqueCount="170">
   <si>
     <t>default</t>
   </si>
@@ -68,9 +68,6 @@
     <t>frische Handtücher</t>
   </si>
   <si>
-    <t>Arzt</t>
-  </si>
-  <si>
     <t>Putzlicht</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>#(Connecting to Port 80/443)</t>
   </si>
   <si>
-    <t>DMXScenes</t>
-  </si>
-  <si>
     <t>#(Wird nur im Service Tab angezeigt)</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>#Order Importance</t>
   </si>
   <si>
-    <t>#(Wird nur angezeigt, wenn nicht 0) (Wird in der Laufzeit bearbeitet)</t>
-  </si>
-  <si>
     <t>#Dimmer1 Channel</t>
   </si>
   <si>
@@ -323,9 +314,6 @@
     <t>#Arduino Com Port Name</t>
   </si>
   <si>
-    <t>#CH0</t>
-  </si>
-  <si>
     <t>Was kann ich heute für Sie tun?</t>
   </si>
   <si>
@@ -549,6 +537,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Scenes</t>
+  </si>
+  <si>
+    <t>#1 based</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Aufguss</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q72" sqref="Q72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,42 +1036,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1079,10 +1082,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>192</v>
@@ -1099,10 +1102,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1110,10 +1113,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1121,43 +1124,43 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>666</v>
@@ -1165,10 +1168,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1191,35 +1194,35 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>192</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -1247,24 +1250,24 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1272,98 +1275,98 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
         <v>128</v>
-      </c>
-      <c r="F18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1371,19 +1374,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1391,51 +1394,51 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1443,87 +1446,87 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1534,16 +1537,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1554,16 +1557,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -1574,84 +1577,84 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -1660,13 +1663,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -1675,30 +1678,30 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1706,13 +1709,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1720,151 +1723,151 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C52">
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1872,41 +1875,33 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" t="str">
-        <f xml:space="preserve">  B48 &amp; "," &amp; C50 &amp; "," &amp; "true,true, false"</f>
-        <v>Session,15,true,true, false</v>
-      </c>
       <c r="F56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="str">
-        <f xml:space="preserve">  B60 &amp; "," &amp; C62 &amp; "," &amp; "true,true, false"</f>
-        <v>DMXScenes,Putzlicht,true,true, false</v>
-      </c>
-      <c r="F57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1914,58 +1909,54 @@
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" t="str">
-        <f xml:space="preserve">  B54 &amp; "," &amp; C57 &amp; "," &amp; "true,true, false"</f>
-        <v>Services,Notfall,true,true, false</v>
-      </c>
       <c r="F58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>26</v>
@@ -1974,57 +1965,57 @@
         <v>27</v>
       </c>
       <c r="O60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="T60" s="6" t="s">
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U60" s="4" t="s">
+      <c r="B61" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="E61">
+        <v>255</v>
       </c>
       <c r="F61">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="G61">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J61">
         <v>128</v>
       </c>
       <c r="K61">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2047,37 +2038,34 @@
       <c r="R61">
         <v>0</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F62">
+        <v>200</v>
+      </c>
+      <c r="G62">
+        <v>128</v>
+      </c>
+      <c r="H62">
         <v>255</v>
-      </c>
-      <c r="G62">
-        <v>200</v>
-      </c>
-      <c r="H62">
-        <v>128</v>
       </c>
       <c r="I62">
         <v>255</v>
@@ -2086,10 +2074,10 @@
         <v>255</v>
       </c>
       <c r="K62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -2109,263 +2097,307 @@
       <c r="R62">
         <v>0</v>
       </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63">
+        <v>255</v>
+      </c>
+      <c r="F63">
+        <v>200</v>
+      </c>
+      <c r="G63">
+        <v>128</v>
+      </c>
+      <c r="H63">
+        <v>255</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>255</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>100</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65">
         <v>255</v>
       </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>255</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
         <v>255</v>
       </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>255</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <v>255</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>255</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>128</v>
+      </c>
+      <c r="J67">
+        <v>128</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>255</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>128</v>
-      </c>
-      <c r="K66">
-        <v>128</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>255</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>55</v>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPA-SUITE\Freigabe\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{848E677E-4C18-4C73-9E26-CDDD082E2B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6A6D6452-7391-4448-AAD2-B16F2B0943CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="263" uniqueCount="170">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="268" uniqueCount="172">
   <si>
     <t>default</t>
   </si>
@@ -329,9 +329,6 @@
     <t>WerbeVideo.mp4</t>
   </si>
   <si>
-    <t>Logo.png</t>
-  </si>
-  <si>
     <t>butler.png</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>#WiFi SSID (Mit [Room] kann dynamisch der Raum ersetzt werden)</t>
   </si>
   <si>
-    <t>WifiName_ofRoom:[Room]</t>
-  </si>
-  <si>
     <t>Design Element</t>
   </si>
   <si>
@@ -549,6 +543,18 @@
   </si>
   <si>
     <t>Aufguss</t>
+  </si>
+  <si>
+    <t>Logoscaled.png</t>
+  </si>
+  <si>
+    <t>WifiRaum[Room]</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Wolken</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
@@ -1066,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1116,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1149,10 +1155,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1174,22 +1180,22 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
         <v>5</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,7 +1262,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,10 +1270,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1281,28 +1287,28 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
         <v>123</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>125</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" t="s">
         <v>126</v>
-      </c>
-      <c r="H18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,31 +1316,31 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s">
-        <v>100</v>
-      </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1345,7 +1351,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1355,10 +1361,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1377,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1386,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1397,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1410,10 +1416,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1423,11 +1429,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1435,10 +1441,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1449,10 +1455,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -1506,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1546,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1560,13 +1566,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -1577,13 +1583,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="13"/>
     </row>
@@ -1639,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>86</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1698,10 +1704,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1712,10 +1718,10 @@
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1726,27 +1732,27 @@
         <v>34</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
         <v>53</v>
@@ -1771,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -1788,16 +1794,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -1811,10 +1817,10 @@
         <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -1827,19 +1833,19 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>28</v>
@@ -1876,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -1887,13 +1893,13 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -1918,18 +1924,18 @@
         <v>34</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>19</v>
@@ -1974,7 +1980,7 @@
         <v>76</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S60" s="6" t="s">
         <v>40</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61">
         <v>255</v>
@@ -2009,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>128</v>
@@ -2053,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E62">
         <v>255</v>
@@ -2068,7 +2074,7 @@
         <v>255</v>
       </c>
       <c r="I62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>255</v>
@@ -2112,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E63">
         <v>255</v>
@@ -2127,7 +2133,7 @@
         <v>255</v>
       </c>
       <c r="I63">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>255</v>
@@ -2168,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2333,7 +2339,7 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>128</v>
@@ -2391,12 +2397,71 @@
       <c r="A68" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>158</v>
+      <c r="B68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>255</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>128</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+      <c r="M68">
+        <v>255</v>
+      </c>
+      <c r="N68">
+        <v>255</v>
+      </c>
+      <c r="O68">
+        <v>255</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SPA-SUITE\Freigabe\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6A6D6452-7391-4448-AAD2-B16F2B0943CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF96D80D-0D23-45D5-8CF5-AC0A7CDB4419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="268" uniqueCount="172">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="270" uniqueCount="175">
   <si>
     <t>default</t>
   </si>
@@ -269,9 +269,6 @@
     <t>#CH12</t>
   </si>
   <si>
-    <t>#CH13</t>
-  </si>
-  <si>
     <t>#Sitzung ist zuende</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>#List of Channels (R|G|B|W)</t>
   </si>
   <si>
-    <t>#CH14</t>
-  </si>
-  <si>
     <t>#(Standart Button, falls Gastro ausfällt)</t>
   </si>
   <si>
@@ -555,6 +549,21 @@
   </si>
   <si>
     <t>Wolken</t>
+  </si>
+  <si>
+    <t>Feuer.mp4</t>
+  </si>
+  <si>
+    <t>Wellen.mp4</t>
+  </si>
+  <si>
+    <t>Wald.mp4</t>
+  </si>
+  <si>
+    <t>Wolken.mp4</t>
+  </si>
+  <si>
+    <t>#Sauna Knöpfe channel offset</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N72" sqref="N72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
@@ -1072,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1080,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1111,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1122,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1133,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1155,10 +1164,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>666</v>
@@ -1217,10 +1226,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,7 +1271,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,10 +1279,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1287,28 +1296,28 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>122</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>123</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>124</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" t="s">
         <v>125</v>
-      </c>
-      <c r="I18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,31 +1325,31 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1351,7 +1360,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1361,10 +1370,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1372,7 +1381,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1383,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1392,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1403,10 +1412,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1416,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1429,11 +1438,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1455,10 +1464,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,7 +1478,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>63</v>
@@ -1492,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -1512,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>34</v>
@@ -1532,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1552,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1566,53 +1575,53 @@
         <v>11</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36">
         <v>7</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35">
+      <c r="D36" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="13"/>
-    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
+      <c r="A37" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,10 +1629,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,86 +1640,83 @@
         <v>11</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43">
+        <v>62</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44">
         <v>15</v>
       </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="D45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,378 +1724,327 @@
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
         <v>116</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52">
-        <v>-1</v>
       </c>
       <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="F52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="B54" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="4" t="s">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
-      </c>
-      <c r="D57" t="s">
-        <v>167</v>
-      </c>
-      <c r="F57" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S60" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="T60" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61">
-        <v>255</v>
-      </c>
-      <c r="F61">
-        <v>56</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>128</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>255</v>
-      </c>
-      <c r="M61">
-        <v>255</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E62">
+        <v>56</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>255</v>
       </c>
-      <c r="F62">
-        <v>200</v>
-      </c>
-      <c r="G62">
-        <v>128</v>
-      </c>
-      <c r="H62">
+      <c r="L62">
         <v>255</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>255</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>100</v>
-      </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -2097,58 +2052,52 @@
       <c r="P62">
         <v>0</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="T62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E63">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>128</v>
+      </c>
+      <c r="G63">
         <v>255</v>
       </c>
-      <c r="F63">
-        <v>200</v>
-      </c>
-      <c r="G63">
-        <v>128</v>
-      </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>100</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>255</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>255</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>255</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
       <c r="N63">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -2156,84 +2105,78 @@
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q63" t="s">
+        <v>93</v>
+      </c>
+      <c r="R63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64">
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>128</v>
+      </c>
+      <c r="G64">
+        <v>255</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>255</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>100</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>30</v>
-      </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E65">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2254,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -2266,52 +2209,43 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>255</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>128</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>255</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
       <c r="L66">
         <v>0</v>
       </c>
@@ -2319,51 +2253,48 @@
         <v>0</v>
       </c>
       <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <v>255</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>255</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -2383,37 +2314,31 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G68">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2431,37 +2356,84 @@
         <v>255</v>
       </c>
       <c r="M68">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>255</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>255</v>
+      </c>
+      <c r="I69">
+        <v>128</v>
+      </c>
+      <c r="J69">
+        <v>355</v>
+      </c>
+      <c r="K69">
+        <v>255</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+      <c r="M69">
+        <v>255</v>
+      </c>
+      <c r="N69">
+        <v>255</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Spa_Interaction_Screen_Content/ConfigFile.xlsx
+++ b/Spa_Interaction_Screen_Content/ConfigFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berni\Documents\GitHub\Spa_Interaction_Screen\Spa_Interaction_Screen_Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF96D80D-0D23-45D5-8CF5-AC0A7CDB4419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DDF8C952-7DEC-45A7-B02B-ECFB78F21532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2745" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigFile" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="270" uniqueCount="175">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="269" uniqueCount="176">
   <si>
     <t>default</t>
   </si>
@@ -170,12 +170,6 @@
     <t>#Order Importance</t>
   </si>
   <si>
-    <t>#Dimmer1 Channel</t>
-  </si>
-  <si>
-    <t>#Dimmer2 Channel</t>
-  </si>
-  <si>
     <t>#Objektbeleuchtung (Channel(1&lt;X&lt;#channels)|Off|On)</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>scene</t>
   </si>
   <si>
-    <t xml:space="preserve">#Anzeige Text </t>
-  </si>
-  <si>
     <t>#Off Value</t>
   </si>
   <si>
@@ -302,9 +293,6 @@
     <t>#Not useable</t>
   </si>
   <si>
-    <t>Laustärke</t>
-  </si>
-  <si>
     <t>COM4</t>
   </si>
   <si>
@@ -359,12 +347,6 @@
     <t>Design Element</t>
   </si>
   <si>
-    <t>Dusche</t>
-  </si>
-  <si>
-    <t>Raum</t>
-  </si>
-  <si>
     <t>Whirlpool</t>
   </si>
   <si>
@@ -563,7 +545,28 @@
     <t>Wolken.mp4</t>
   </si>
   <si>
-    <t>#Sauna Knöpfe channel offset</t>
+    <t>LightIcon.png</t>
+  </si>
+  <si>
+    <t>#Icon Filepath</t>
+  </si>
+  <si>
+    <t>volumeIcon.png</t>
+  </si>
+  <si>
+    <t>#Dimmer Channel</t>
+  </si>
+  <si>
+    <t>#Laustärke</t>
+  </si>
+  <si>
+    <t>#Icon Filepath / Name</t>
+  </si>
+  <si>
+    <t>Sauna Leuchte</t>
+  </si>
+  <si>
+    <t>#Streaming wird beendet</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
@@ -1081,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -1120,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>8000</v>
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>5004</v>
@@ -1142,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1153,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,10 +1167,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>666</v>
@@ -1226,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>192</v>
@@ -1257,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -1265,24 +1268,24 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1290,34 +1293,34 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>126</v>
-      </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1325,31 +1328,31 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1360,7 +1363,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1370,10 +1373,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1381,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1392,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -1401,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1412,10 +1415,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -1425,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1438,11 +1441,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1450,10 +1453,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1464,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1475,19 +1478,19 @@
         <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11.12</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -1515,19 +1518,19 @@
         <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,13 +1538,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1555,13 +1558,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1575,53 +1578,53 @@
         <v>11</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="13"/>
+      <c r="B37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,10 +1632,10 @@
         <v>11</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1640,83 +1643,92 @@
         <v>11</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44">
-        <v>15</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>137</v>
+      <c r="B45" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,55 +1736,58 @@
         <v>11</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>155</v>
+      <c r="F48" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>148</v>
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -1780,16 +1795,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -1797,16 +1812,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -1814,78 +1829,78 @@
         <v>12</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>-1</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53">
-        <v>-1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>28</v>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -1893,16 +1908,16 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -1910,97 +1925,133 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>160</v>
+        <v>34</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>28</v>
+      <c r="A61" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>255</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -2008,22 +2059,22 @@
         <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E62">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2035,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -2053,7 +2104,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="R62" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -2061,19 +2115,19 @@
         <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E63">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F63">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="G63">
         <v>255</v>
@@ -2088,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -2105,11 +2159,8 @@
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63" t="s">
-        <v>93</v>
-      </c>
       <c r="R63" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -2117,22 +2168,22 @@
         <v>42</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2144,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
       <c r="M64">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -2163,17 +2214,17 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>42</v>
+      <c r="A65" t="s">
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2194,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -2206,10 +2257,13 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="P65">
         <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -2217,16 +2271,16 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2235,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2244,25 +2298,25 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -2270,40 +2324,40 @@
         <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M67">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -2315,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -2323,22 +2377,22 @@
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F68">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2347,19 +2401,19 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L68">
         <v>255</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -2368,73 +2422,20 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="B69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>255</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>255</v>
-      </c>
-      <c r="I69">
-        <v>128</v>
-      </c>
-      <c r="J69">
-        <v>355</v>
-      </c>
-      <c r="K69">
-        <v>255</v>
-      </c>
-      <c r="L69">
-        <v>255</v>
-      </c>
-      <c r="M69">
-        <v>255</v>
-      </c>
-      <c r="N69">
-        <v>255</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>173</v>
+      <c r="B69" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>52</v>
+      <c r="A70" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
